--- a/testData/iApp.xlsx
+++ b/testData/iApp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/ZS_GenAI/testData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://talentkloud-my.sharepoint.com/personal/vaibhav_gangrade_codvo_ai/Documents/Documents/Codvo.ai/MyProject/ZS_Playwright_GenAI/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="192" documentId="13_ncr:1_{054CADDF-AA3E-4041-98F7-EE3BCD8AE219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EB257FC-D7B5-49CF-A4E9-5350AA69C148}"/>
+  <xr:revisionPtr revIDLastSave="229" documentId="13_ncr:1_{054CADDF-AA3E-4041-98F7-EE3BCD8AE219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40733BBB-B692-41E1-9E25-69953FD9FA89}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>action</t>
   </si>
@@ -71,15 +71,9 @@
     <t>Email Address</t>
   </si>
   <si>
-    <t>dtestiapp@yopmail.com</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Iapp@2025</t>
-  </si>
-  <si>
     <t>click</t>
   </si>
   <si>
@@ -92,12 +86,6 @@
     <t>https://qa-api.iapp.cool/auth/signin</t>
   </si>
   <si>
-    <t>{
-  "email": "dtestiapp@yopmail.com",
-  "password": "Iapp@2025"
-}</t>
-  </si>
-  <si>
     <t>Security Code</t>
   </si>
   <si>
@@ -105,6 +93,48 @@
   </si>
   <si>
     <t>response</t>
+  </si>
+  <si>
+    <t>borhadeashish27+aadmin11@yopmail.com</t>
+  </si>
+  <si>
+    <t>Admin@123</t>
+  </si>
+  <si>
+    <t>{"email": "borhadeashish27+aadmin11@yopmail.com","password": "Admin@123"}</t>
+  </si>
+  <si>
+    <t>Proposals</t>
+  </si>
+  <si>
+    <t>Proposals in sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizations tab </t>
+  </si>
+  <si>
+    <t>scrollto</t>
+  </si>
+  <si>
+    <t>Finalize Proposal</t>
+  </si>
+  <si>
+    <t>Appendix in sidebar</t>
+  </si>
+  <si>
+    <t>Proposed</t>
+  </si>
+  <si>
+    <t>fileupload</t>
+  </si>
+  <si>
+    <t>input[accept="application/pdf"]</t>
+  </si>
+  <si>
+    <t>./uploads/sample.pdf</t>
+  </si>
+  <si>
+    <t>sample.pdf</t>
   </si>
 </sst>
 </file>
@@ -452,11 +482,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -511,8 +539,8 @@
       <c r="B4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
+      <c r="C4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="D4" s="1">
         <v>1000</v>
@@ -526,10 +554,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>1000</v>
@@ -540,27 +568,27 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D7" s="1">
         <v>1000</v>
@@ -571,10 +599,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D8" s="1">
         <v>1000</v>
@@ -585,23 +613,134 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D9" s="1">
         <v>1000</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2000</v>
+      </c>
+    </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B7" r:id="rId1" xr:uid="{BE6C57AD-CF4D-4B5A-A0EB-E81690DB2310}"/>
+    <hyperlink ref="B2" r:id="rId2" location="/" xr:uid="{007719DB-1069-489F-82B6-93EC43571804}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{C213FECA-8287-4DFD-95DA-F4CF344CCBA2}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{53120403-6BFB-4756-8F8E-D45AFE9C89E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>